--- a/tbc/data/datos_paises.xlsx
+++ b/tbc/data/datos_paises.xlsx
@@ -565,12 +565,12 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="41.1796875" customWidth="1"/>
+    <col min="1" max="1" width="69.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="26.5" x14ac:dyDescent="0.35">
@@ -607,7 +607,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5">
-        <v>7.3</v>
+        <v>7.26</v>
       </c>
       <c r="C2" s="5">
         <v>7.3</v>
@@ -636,7 +636,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5">
-        <v>5.4</v>
+        <v>5.38</v>
       </c>
       <c r="C3" s="5">
         <v>5.4</v>
@@ -1042,28 +1042,28 @@
         <v>15</v>
       </c>
       <c r="B17" s="13">
-        <v>32.700000000000003</v>
+        <v>19.309999999999999</v>
       </c>
       <c r="C17" s="13">
-        <v>32.700000000000003</v>
+        <v>6.37</v>
       </c>
       <c r="D17" s="13">
-        <v>32.700000000000003</v>
+        <v>44.1</v>
       </c>
       <c r="E17" s="13">
-        <v>32.700000000000003</v>
+        <v>42.77</v>
       </c>
       <c r="F17" s="13">
-        <v>32.700000000000003</v>
+        <v>37.880000000000003</v>
       </c>
       <c r="G17" s="13">
-        <v>32.700000000000003</v>
+        <v>18.34</v>
       </c>
       <c r="H17" s="13">
-        <v>32.700000000000003</v>
+        <v>31.83</v>
       </c>
       <c r="I17" s="13">
-        <v>32.700000000000003</v>
+        <v>20.46</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">

--- a/tbc/data/datos_paises.xlsx
+++ b/tbc/data/datos_paises.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -84,9 +84,6 @@
     <t>ARGENTINA</t>
   </si>
   <si>
-    <t>BRASIL</t>
-  </si>
-  <si>
     <t>CHILE</t>
   </si>
   <si>
@@ -99,10 +96,13 @@
     <t>ECUADOR</t>
   </si>
   <si>
-    <t>MÉXICO</t>
-  </si>
-  <si>
-    <t>PERÚ</t>
+    <t>BRAZIL</t>
+  </si>
+  <si>
+    <t>MEXICO</t>
+  </si>
+  <si>
+    <t>PERU</t>
   </si>
 </sst>
 </file>
@@ -565,15 +565,15 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="69.08984375" customWidth="1"/>
+    <col min="1" max="1" width="69.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="26.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -581,19 +581,19 @@
         <v>20</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>26</v>
@@ -602,7 +602,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -631,7 +631,7 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
@@ -660,7 +660,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
@@ -689,7 +689,7 @@
         <v>5.68</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>4</v>
       </c>
@@ -718,7 +718,7 @@
         <v>18.34</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>5</v>
       </c>
@@ -747,7 +747,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>5</v>
       </c>
@@ -776,7 +776,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
@@ -805,7 +805,7 @@
         <v>2.0499999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>7</v>
       </c>
@@ -834,7 +834,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>8</v>
       </c>
@@ -863,7 +863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
         <v>9</v>
       </c>
@@ -892,7 +892,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
         <v>10</v>
       </c>
@@ -921,7 +921,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
         <v>11</v>
       </c>
@@ -950,7 +950,7 @@
         <v>18.499130912380693</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
         <v>12</v>
       </c>
@@ -979,7 +979,7 @@
         <v>28.196000000000012</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>13</v>
       </c>
@@ -1008,7 +1008,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
         <v>14</v>
       </c>
@@ -1037,7 +1037,7 @@
         <v>21.000428494630849</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
         <v>15</v>
       </c>
@@ -1066,7 +1066,7 @@
         <v>20.46</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
         <v>16</v>
       </c>
@@ -1095,7 +1095,7 @@
         <v>73.02</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
         <v>17</v>
       </c>
@@ -1124,7 +1124,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="16" t="s">
         <v>18</v>
       </c>
@@ -1153,7 +1153,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
         <v>19</v>
       </c>
